--- a/supplementary 4.xlsx
+++ b/supplementary 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAA25B0-3E69-AE4F-BFF3-307DB9F55097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051F84A-C4DB-A34C-ACD1-1C189A62BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="24600" windowHeight="15500" activeTab="2" xr2:uid="{E8E2C425-F74D-884D-BED2-21E46125997D}"/>
+    <workbookView xWindow="-13760" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{E8E2C425-F74D-884D-BED2-21E46125997D}"/>
   </bookViews>
   <sheets>
     <sheet name="measurement" sheetId="1" r:id="rId1"/>
@@ -34,24 +34,32 @@
     <definedName name="_xlchart.v1.2" hidden="1">measurement!$AN$13:$AN$43</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">measurement!$AR$12</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">measurement!$AR$13:$AR$43</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">measurement!$AM$13:$AM$43</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">measurement!$AN$12</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">measurement!$AN$13:$AN$43</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">measurement!$AO$12</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">measurement!$AO$13:$AO$43</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">measurement!$AP$12</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">measurement!$AP$13:$AP$43</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">measurement!$AQ$12</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">measurement!$AO$12</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">measurement!$AQ$13:$AQ$43</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">measurement!$AR$12</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">measurement!$AR$13:$AR$43</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">measurement!$AO$13:$AO$43</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">measurement!$AP$12</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">measurement!$AP$13:$AP$43</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">measurement!$AQ$12</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">measurement!$AQ$13:$AQ$43</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">measurement!$AR$12</definedName>
-    <definedName name="_xlchart.v2.22" hidden="1">BCS!$N$21:$N$32</definedName>
-    <definedName name="_xlchart.v2.23" hidden="1">BCS!$Q$20</definedName>
-    <definedName name="_xlchart.v2.24" hidden="1">BCS!$Q$21:$Q$32</definedName>
-    <definedName name="_xlchart.v2.25" hidden="1">BCS!$N$21:$N$32</definedName>
-    <definedName name="_xlchart.v2.26" hidden="1">BCS!$Q$20</definedName>
-    <definedName name="_xlchart.v2.27" hidden="1">BCS!$Q$21:$Q$32</definedName>
+    <definedName name="_xlchart.v2.33" hidden="1">BCS!$N$21:$N$32</definedName>
+    <definedName name="_xlchart.v2.34" hidden="1">BCS!$Q$20</definedName>
+    <definedName name="_xlchart.v2.35" hidden="1">BCS!$Q$21:$Q$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="682">
   <si>
     <t>types of measurements</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2810,6 +2818,50 @@
   </si>
   <si>
     <t>r(x10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Withers height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hip height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart girth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hip width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waist height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backside width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head length</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3357,7 +3409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3610,53 +3662,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3694,10 +3704,22 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
@@ -3706,59 +3728,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3769,23 +3800,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3807,6 +3850,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3867,35 +3925,35 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>a:</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>the frequency of top 10 three-dimensional</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
@@ -3970,34 +4028,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>withers height</c:v>
+                  <c:v>Withers height</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>body length</c:v>
+                  <c:v>Body length</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hip height</c:v>
+                  <c:v>Hip height</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>chest depth</c:v>
+                  <c:v>Chest depth</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>back height</c:v>
+                  <c:v>Back height</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>heart girth</c:v>
+                  <c:v>Heart girth</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>chest width</c:v>
+                  <c:v>Chest width</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>hip width</c:v>
+                  <c:v>Hip width</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>waist height</c:v>
+                  <c:v>Waist height</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>backside width</c:v>
+                  <c:v>Backside width</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4090,7 +4148,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>body</a:t>
+                  <a:t>Body</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -4231,7 +4289,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>number</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0">
@@ -4418,7 +4476,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4426,7 +4484,7 @@
               <a:t>c:</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4434,7 +4492,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4442,7 +4500,7 @@
               <a:t>the</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4450,7 +4508,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4458,7 +4516,7 @@
               <a:t>performance</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4466,7 +4524,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4474,7 +4532,7 @@
               <a:t>variations</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4482,7 +4540,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4490,7 +4548,7 @@
               <a:t>at</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4498,7 +4556,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4506,7 +4564,7 @@
               <a:t>diverse</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4514,7 +4572,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4522,7 +4580,7 @@
               <a:t>measurements</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4530,7 +4588,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4538,7 +4596,7 @@
               <a:t>under</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4546,7 +4604,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4554,7 +4612,7 @@
               <a:t>the</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4562,7 +4620,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4570,7 +4628,7 @@
               <a:t>same</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4578,7 +4636,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4586,14 +4644,14 @@
               <a:t>research</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400">
               <a:effectLst/>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -6351,14 +6409,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200">
+              <a:defRPr sz="1400">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6372,7 +6430,7 @@
               <a:t>b:</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6386,7 +6444,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6400,7 +6458,7 @@
               <a:t>the</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6414,7 +6472,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6428,7 +6486,7 @@
               <a:t>variations</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6442,7 +6500,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6456,7 +6514,7 @@
               <a:t>of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6470,7 +6528,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6484,7 +6542,7 @@
               <a:t>5</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6498,7 +6556,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6512,7 +6570,7 @@
               <a:t>most</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6526,7 +6584,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6540,7 +6598,7 @@
               <a:t>used</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6554,7 +6612,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6569,7 +6627,7 @@
               <a:t>evaluation criteria</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6584,7 +6642,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6598,7 +6656,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6612,7 +6670,7 @@
               <a:t>of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6626,7 +6684,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6640,7 +6698,7 @@
               <a:t>top</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6654,7 +6712,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6668,7 +6726,7 @@
               <a:t>4</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6682,7 +6740,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6696,7 +6754,7 @@
               <a:t>body</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6710,7 +6768,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6724,7 +6782,7 @@
               <a:t>measurements</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6738,7 +6796,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6752,7 +6810,7 @@
               <a:t>under</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6766,7 +6824,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6781,7 +6839,7 @@
               <a:t>different acquisition procedures</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6796,7 +6854,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -6904,7 +6962,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>top</a:t>
+                  <a:t>Top</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6918,7 +6976,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>  </a:t>
+                  <a:t> </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7034,7 +7092,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>values</a:t>
+                  <a:t>Values</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7090,7 +7148,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>5</a:t>
+                  <a:t>top</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7118,7 +7176,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>most</a:t>
+                  <a:t>5</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7277,7 +7335,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7291,7 +7349,7 @@
               <a:t>b:</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7305,7 +7363,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7319,7 +7377,7 @@
               <a:t>the</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7333,7 +7391,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7347,7 +7405,7 @@
               <a:t>variations</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7361,7 +7419,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7375,7 +7433,7 @@
               <a:t>of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7389,7 +7447,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7403,7 +7461,7 @@
               <a:t>5</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7417,7 +7475,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7431,7 +7489,7 @@
               <a:t>most</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7445,7 +7503,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7459,7 +7517,7 @@
               <a:t>used</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7473,7 +7531,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7488,7 +7546,7 @@
               <a:t>evaluation criteria</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7503,7 +7561,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7517,7 +7575,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7531,7 +7589,7 @@
               <a:t>of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7545,7 +7603,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7559,7 +7617,7 @@
               <a:t>top</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7573,7 +7631,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7587,7 +7645,7 @@
               <a:t>4</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7601,7 +7659,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7615,7 +7673,7 @@
               <a:t>body</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7629,7 +7687,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7643,7 +7701,7 @@
               <a:t>measurements</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7657,7 +7715,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7671,7 +7729,7 @@
               <a:t>under</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7685,7 +7743,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7700,7 +7758,7 @@
               <a:t>different acquisition procedures</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7715,7 +7773,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -7823,7 +7881,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>top</a:t>
+                  <a:t>Top</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7837,7 +7895,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>  </a:t>
+                  <a:t> </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7852,6 +7910,34 @@
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>4</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>used</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7909,6 +7995,146 @@
                   </a:rPr>
                   <a:t>measurements</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>for</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>3D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>cattle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>growth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>management</a:t>
+                </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
@@ -7953,7 +8179,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>values</a:t>
+                  <a:t>Values</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -8009,7 +8235,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>5</a:t>
+                  <a:t>top</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -8037,7 +8263,7 @@
                     <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>most</a:t>
+                  <a:t>5</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -8142,10 +8368,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.22</cx:f>
+        <cx:f>_xlchart.v2.33</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.24</cx:f>
+        <cx:f>_xlchart.v2.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8243,7 +8469,7 @@
         <cx:series layoutId="funnel" uniqueId="{65BAE8D7-C711-9248-B82F-65421DFE8023}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.23</cx:f>
+              <cx:f>_xlchart.v2.34</cx:f>
               <cx:v>width of range</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12251,8 +12477,8 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>466431</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>15017</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>629293</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12427,8 +12653,8 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>345440</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>101374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14807,412 +15033,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D78BFBA5-BF9F-C642-921E-5312B13F76F9}" name="数据透视表3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="R13:T92" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="17">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="53">
-        <item x="19"/>
-        <item x="16"/>
-        <item x="44"/>
-        <item x="14"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item m="1" x="50"/>
-        <item x="33"/>
-        <item m="1" x="46"/>
-        <item x="21"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="35"/>
-        <item x="23"/>
-        <item x="36"/>
-        <item x="8"/>
-        <item m="1" x="47"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item m="1" x="51"/>
-        <item x="13"/>
-        <item x="41"/>
-        <item x="9"/>
-        <item m="1" x="45"/>
-        <item m="1" x="48"/>
-        <item x="37"/>
-        <item m="1" x="49"/>
-        <item x="31"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="32"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="20"/>
-        <item x="42"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="30"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item m="1" x="52"/>
-        <item x="26"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="15"/>
-        <item x="34"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="7"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="45"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="50"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="51"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="52"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:article" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31F04AC5-32DF-2E49-BEB2-4C711E7CC39C}" name="数据透视表2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31F04AC5-32DF-2E49-BEB2-4C711E7CC39C}" name="数据透视表2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="L13:O99" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -15818,8 +15639,413 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D78BFBA5-BF9F-C642-921E-5312B13F76F9}" name="数据透视表3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="R13:T92" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="17">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="53">
+        <item x="19"/>
+        <item x="16"/>
+        <item x="44"/>
+        <item x="14"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item m="1" x="50"/>
+        <item x="33"/>
+        <item m="1" x="46"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="8"/>
+        <item m="1" x="47"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item m="1" x="51"/>
+        <item x="13"/>
+        <item x="41"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item m="1" x="48"/>
+        <item x="37"/>
+        <item m="1" x="49"/>
+        <item x="31"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="32"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="20"/>
+        <item x="42"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="30"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item m="1" x="52"/>
+        <item x="26"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="34"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="7"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="45"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="50"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="34"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="39"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="49"/>
+      <x/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="51"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="52"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="32"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="33"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="31"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:article" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4212AC-D170-D04B-A2F6-DDFC52814A04}" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="model types">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4212AC-D170-D04B-A2F6-DDFC52814A04}" name="数据透视表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="model types">
   <location ref="O8:P15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -16198,8 +16424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925F1468-077D-0F4A-9773-C3A148E71923}">
   <dimension ref="A1:DI318"/>
   <sheetViews>
-    <sheetView topLeftCell="AK36" zoomScale="115" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AR37" sqref="AR37"/>
+    <sheetView tabSelected="1" topLeftCell="R37" zoomScale="90" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AK50" sqref="AK50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16246,10 +16472,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="29" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="91" t="s">
         <v>660</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -16274,14 +16500,14 @@
         <v>7</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="108"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:46" ht="17">
-      <c r="A2" s="103"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
@@ -16314,7 +16540,7 @@
       <c r="X2"/>
     </row>
     <row r="3" spans="1:46" ht="64">
-      <c r="A3" s="103"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
@@ -16338,7 +16564,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" ht="32">
-      <c r="A4" s="103"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
@@ -16360,7 +16586,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="32">
-      <c r="A5" s="104"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
@@ -16485,10 +16711,10 @@
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="110"/>
+      <c r="G12" s="96"/>
       <c r="AL12" s="24" t="s">
         <v>39</v>
       </c>
@@ -16513,34 +16739,34 @@
       <c r="AS12" s="26"/>
     </row>
     <row r="13" spans="1:46" ht="16" customHeight="1">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="113" t="s">
+      <c r="G13" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="112" t="s">
+      <c r="H13" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="112" t="s">
+      <c r="J13" s="99" t="s">
         <v>52</v>
       </c>
       <c r="L13" t="s">
@@ -16568,44 +16794,44 @@
         <v>53</v>
       </c>
       <c r="X13" s="28" t="s">
-        <v>58</v>
+        <v>671</v>
       </c>
       <c r="Y13" s="28" t="s">
-        <v>60</v>
+        <v>672</v>
       </c>
       <c r="Z13" s="28" t="s">
-        <v>59</v>
+        <v>673</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>61</v>
+        <v>674</v>
       </c>
       <c r="AB13" s="28" t="s">
-        <v>62</v>
+        <v>675</v>
       </c>
       <c r="AC13" s="28" t="s">
-        <v>63</v>
+        <v>676</v>
       </c>
       <c r="AD13" s="28" t="s">
-        <v>64</v>
+        <v>677</v>
       </c>
       <c r="AE13" s="28" t="s">
-        <v>65</v>
+        <v>678</v>
       </c>
       <c r="AF13" s="28" t="s">
-        <v>66</v>
+        <v>679</v>
       </c>
       <c r="AG13" s="29" t="s">
-        <v>68</v>
+        <v>680</v>
       </c>
       <c r="AH13" s="29" t="s">
-        <v>67</v>
+        <v>681</v>
       </c>
       <c r="AI13" s="29"/>
       <c r="AL13" s="30" t="s">
         <v>58</v>
       </c>
       <c r="AM13" s="24" t="s">
-        <v>58</v>
+        <v>671</v>
       </c>
       <c r="AN13" s="26">
         <v>0.23</v>
@@ -16626,14 +16852,14 @@
     <row r="14" spans="1:46">
       <c r="A14" s="98"/>
       <c r="B14" s="98"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
       <c r="K14" s="31"/>
       <c r="L14" t="s">
         <v>71</v>
@@ -16697,8 +16923,8 @@
         <v>11</v>
       </c>
       <c r="AL14" s="30"/>
-      <c r="AM14" s="24" t="s">
-        <v>58</v>
+      <c r="AM14" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN14" s="25">
         <v>1.6</v>
@@ -16723,19 +16949,19 @@
       <c r="B15" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="100">
         <v>2021</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="100">
         <v>93</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="100" t="s">
         <v>80</v>
       </c>
       <c r="H15" s="32" t="s">
@@ -16744,7 +16970,7 @@
       <c r="I15" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="97"/>
+      <c r="J15" s="100"/>
       <c r="K15" s="31"/>
       <c r="L15"/>
       <c r="M15" t="s">
@@ -16762,7 +16988,7 @@
       <c r="T15">
         <v>1</v>
       </c>
-      <c r="W15" s="114" t="s">
+      <c r="W15" s="104" t="s">
         <v>85</v>
       </c>
       <c r="X15" t="s">
@@ -16799,8 +17025,8 @@
         <v>87</v>
       </c>
       <c r="AL15" s="30"/>
-      <c r="AM15" s="24" t="s">
-        <v>58</v>
+      <c r="AM15" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN15" s="25">
         <v>3.5</v>
@@ -16823,18 +17049,18 @@
         <v>77</v>
       </c>
       <c r="B16" s="98"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
       <c r="H16" s="32" t="s">
         <v>89</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="97"/>
+      <c r="J16" s="100"/>
       <c r="K16" s="31"/>
       <c r="L16"/>
       <c r="M16" t="s">
@@ -16852,7 +17078,7 @@
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="W16" s="115"/>
+      <c r="W16" s="105"/>
       <c r="X16" t="s">
         <v>84</v>
       </c>
@@ -16887,8 +17113,8 @@
         <v>92</v>
       </c>
       <c r="AL16" s="30"/>
-      <c r="AM16" s="24" t="s">
-        <v>58</v>
+      <c r="AM16" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN16" s="25"/>
       <c r="AO16" s="25"/>
@@ -16907,18 +17133,18 @@
         <v>77</v>
       </c>
       <c r="B17" s="98"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
       <c r="H17" s="32" t="s">
         <v>96</v>
       </c>
       <c r="I17" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="J17" s="97"/>
+      <c r="J17" s="100"/>
       <c r="K17" s="31"/>
       <c r="L17"/>
       <c r="M17" t="s">
@@ -16936,7 +17162,7 @@
       <c r="T17">
         <v>1</v>
       </c>
-      <c r="W17" s="115"/>
+      <c r="W17" s="105"/>
       <c r="X17" t="s">
         <v>86</v>
       </c>
@@ -16962,8 +17188,8 @@
         <v>94</v>
       </c>
       <c r="AL17" s="30"/>
-      <c r="AM17" s="24" t="s">
-        <v>58</v>
+      <c r="AM17" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN17" s="25"/>
       <c r="AO17" s="25"/>
@@ -16982,18 +17208,18 @@
         <v>77</v>
       </c>
       <c r="B18" s="98"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
       <c r="H18" s="32" t="s">
         <v>101</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="97"/>
+      <c r="J18" s="100"/>
       <c r="K18" s="31"/>
       <c r="L18"/>
       <c r="M18" t="s">
@@ -17011,7 +17237,7 @@
       <c r="T18">
         <v>1</v>
       </c>
-      <c r="W18" s="115"/>
+      <c r="W18" s="105"/>
       <c r="X18" t="s">
         <v>93</v>
       </c>
@@ -17025,8 +17251,8 @@
         <v>69</v>
       </c>
       <c r="AL18" s="30"/>
-      <c r="AM18" s="24" t="s">
-        <v>58</v>
+      <c r="AM18" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="25"/>
@@ -17047,18 +17273,18 @@
         <v>77</v>
       </c>
       <c r="B19" s="98"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
       <c r="H19" s="32" t="s">
         <v>58</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="97"/>
+      <c r="J19" s="100"/>
       <c r="K19" s="31"/>
       <c r="L19"/>
       <c r="M19" t="s">
@@ -17076,7 +17302,7 @@
       <c r="T19">
         <v>2</v>
       </c>
-      <c r="W19" s="115"/>
+      <c r="W19" s="105"/>
       <c r="X19" t="s">
         <v>69</v>
       </c>
@@ -17091,8 +17317,8 @@
       </c>
       <c r="AF19" s="7"/>
       <c r="AL19" s="30"/>
-      <c r="AM19" s="24" t="s">
-        <v>58</v>
+      <c r="AM19" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN19" s="25"/>
       <c r="AO19" s="25">
@@ -17114,22 +17340,22 @@
       <c r="A20" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="96">
+      <c r="D20" s="109">
         <v>2020</v>
       </c>
-      <c r="E20" s="96">
+      <c r="E20" s="109">
         <v>60</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="96" t="s">
+      <c r="G20" s="109" t="s">
         <v>110</v>
       </c>
       <c r="H20" s="32" t="s">
@@ -17138,7 +17364,7 @@
       <c r="I20" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="96"/>
+      <c r="J20" s="109"/>
       <c r="L20"/>
       <c r="M20" t="s">
         <v>112</v>
@@ -17155,7 +17381,7 @@
       <c r="T20">
         <v>1</v>
       </c>
-      <c r="W20" s="115"/>
+      <c r="W20" s="105"/>
       <c r="X20" t="s">
         <v>91</v>
       </c>
@@ -17164,8 +17390,8 @@
       </c>
       <c r="AF20" s="7"/>
       <c r="AL20" s="30"/>
-      <c r="AM20" s="24" t="s">
-        <v>58</v>
+      <c r="AM20" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN20" s="25"/>
       <c r="AO20" s="25">
@@ -17187,19 +17413,19 @@
       <c r="A21" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
       <c r="H21" s="32" t="s">
         <v>115</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="92"/>
+      <c r="J21" s="107"/>
       <c r="L21"/>
       <c r="M21" t="s">
         <v>116</v>
@@ -17216,7 +17442,7 @@
       <c r="T21">
         <v>1</v>
       </c>
-      <c r="W21" s="115"/>
+      <c r="W21" s="105"/>
       <c r="X21" t="s">
         <v>92</v>
       </c>
@@ -17224,8 +17450,8 @@
         <v>117</v>
       </c>
       <c r="AL21" s="30"/>
-      <c r="AM21" s="24" t="s">
-        <v>58</v>
+      <c r="AM21" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN21" s="25"/>
       <c r="AO21" s="25"/>
@@ -17245,19 +17471,19 @@
       <c r="A22" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="32" t="s">
         <v>119</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J22" s="92"/>
+      <c r="J22" s="107"/>
       <c r="L22"/>
       <c r="M22" t="s">
         <v>118</v>
@@ -17274,13 +17500,13 @@
       <c r="T22">
         <v>1</v>
       </c>
-      <c r="W22" s="115"/>
+      <c r="W22" s="105"/>
       <c r="X22" t="s">
         <v>94</v>
       </c>
       <c r="AL22" s="30"/>
-      <c r="AM22" s="24" t="s">
-        <v>58</v>
+      <c r="AM22" s="84" t="s">
+        <v>671</v>
       </c>
       <c r="AN22" s="25"/>
       <c r="AO22" s="25"/>
@@ -17302,19 +17528,19 @@
       <c r="A23" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="32" t="s">
         <v>121</v>
       </c>
       <c r="I23" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="92"/>
+      <c r="J23" s="107"/>
       <c r="L23"/>
       <c r="M23" t="s">
         <v>122</v>
@@ -17334,15 +17560,15 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="W23" s="115"/>
+      <c r="W23" s="105"/>
       <c r="X23" t="s">
         <v>75</v>
       </c>
-      <c r="AL23" s="100" t="s">
+      <c r="AL23" s="86" t="s">
         <v>123</v>
       </c>
       <c r="AM23" s="24" t="s">
-        <v>123</v>
+        <v>672</v>
       </c>
       <c r="AN23" s="25">
         <v>0.53</v>
@@ -17364,19 +17590,19 @@
       <c r="A24" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
       <c r="H24" s="32" t="s">
         <v>125</v>
       </c>
       <c r="I24" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J24" s="92"/>
+      <c r="J24" s="107"/>
       <c r="L24" t="s">
         <v>59</v>
       </c>
@@ -17396,9 +17622,9 @@
         <v>1</v>
       </c>
       <c r="X24"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="24" t="s">
-        <v>123</v>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="84" t="s">
+        <v>672</v>
       </c>
       <c r="AN24" s="25">
         <v>2.2000000000000002</v>
@@ -17420,19 +17646,19 @@
       <c r="A25" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
       <c r="H25" s="32" t="s">
         <v>128</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J25" s="92"/>
+      <c r="J25" s="107"/>
       <c r="L25"/>
       <c r="M25" t="s">
         <v>129</v>
@@ -17450,9 +17676,9 @@
         <v>2</v>
       </c>
       <c r="X25"/>
-      <c r="AL25" s="100"/>
-      <c r="AM25" s="24" t="s">
-        <v>123</v>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="84" t="s">
+        <v>672</v>
       </c>
       <c r="AN25" s="25"/>
       <c r="AO25" s="25"/>
@@ -17470,19 +17696,19 @@
       <c r="A26" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
       <c r="H26" s="32" t="s">
         <v>123</v>
       </c>
       <c r="I26" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J26" s="92"/>
+      <c r="J26" s="107"/>
       <c r="L26"/>
       <c r="M26" t="s">
         <v>131</v>
@@ -17500,9 +17726,9 @@
         <v>4</v>
       </c>
       <c r="X26"/>
-      <c r="AL26" s="100"/>
-      <c r="AM26" s="24" t="s">
-        <v>123</v>
+      <c r="AL26" s="86"/>
+      <c r="AM26" s="84" t="s">
+        <v>672</v>
       </c>
       <c r="AN26" s="25"/>
       <c r="AO26" s="25"/>
@@ -17520,19 +17746,19 @@
       <c r="A27" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
       <c r="H27" s="32" t="s">
         <v>132</v>
       </c>
       <c r="I27" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="92"/>
+      <c r="J27" s="107"/>
       <c r="L27"/>
       <c r="M27" t="s">
         <v>133</v>
@@ -17550,9 +17776,9 @@
         <v>1</v>
       </c>
       <c r="X27"/>
-      <c r="AL27" s="100"/>
-      <c r="AM27" s="24" t="s">
-        <v>123</v>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="84" t="s">
+        <v>672</v>
       </c>
       <c r="AN27" s="25"/>
       <c r="AO27" s="25"/>
@@ -17572,19 +17798,19 @@
       <c r="A28" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
       <c r="H28" s="32" t="s">
         <v>81</v>
       </c>
       <c r="I28" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="93"/>
+      <c r="J28" s="102"/>
       <c r="K28" s="31"/>
       <c r="L28"/>
       <c r="M28" t="s">
@@ -17612,9 +17838,9 @@
       <c r="X28"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="100"/>
-      <c r="AM28" s="24" t="s">
-        <v>123</v>
+      <c r="AL28" s="86"/>
+      <c r="AM28" s="84" t="s">
+        <v>672</v>
       </c>
       <c r="AN28" s="25"/>
       <c r="AO28" s="25"/>
@@ -17637,19 +17863,19 @@
       <c r="B29" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="97">
+      <c r="D29" s="100">
         <v>2019</v>
       </c>
-      <c r="E29" s="97">
+      <c r="E29" s="100">
         <v>177</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="F29" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="97" t="s">
+      <c r="G29" s="100" t="s">
         <v>110</v>
       </c>
       <c r="H29" s="32" t="s">
@@ -17658,7 +17884,7 @@
       <c r="I29" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="97"/>
+      <c r="J29" s="100"/>
       <c r="K29" s="31"/>
       <c r="L29"/>
       <c r="M29" t="s">
@@ -17683,9 +17909,9 @@
       <c r="X29"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
-      <c r="AL29" s="100"/>
-      <c r="AM29" s="24" t="s">
-        <v>123</v>
+      <c r="AL29" s="86"/>
+      <c r="AM29" s="84" t="s">
+        <v>672</v>
       </c>
       <c r="AN29" s="25"/>
       <c r="AO29" s="25"/>
@@ -17706,18 +17932,18 @@
         <v>137</v>
       </c>
       <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="32" t="s">
         <v>119</v>
       </c>
       <c r="I30" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="J30" s="97"/>
+      <c r="J30" s="100"/>
       <c r="K30" s="31"/>
       <c r="L30"/>
       <c r="M30" t="s">
@@ -17742,9 +17968,9 @@
       <c r="X30"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
-      <c r="AL30" s="100"/>
-      <c r="AM30" s="24" t="s">
-        <v>123</v>
+      <c r="AL30" s="86"/>
+      <c r="AM30" s="84" t="s">
+        <v>672</v>
       </c>
       <c r="AN30" s="25">
         <v>0.93</v>
@@ -17769,18 +17995,18 @@
         <v>137</v>
       </c>
       <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
       <c r="H31" s="32" t="s">
         <v>58</v>
       </c>
       <c r="I31" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="J31" s="97"/>
+      <c r="J31" s="100"/>
       <c r="K31" s="31"/>
       <c r="L31"/>
       <c r="M31" t="s">
@@ -17813,11 +18039,11 @@
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
-      <c r="AL31" s="101" t="s">
+      <c r="AL31" s="87" t="s">
         <v>115</v>
       </c>
       <c r="AM31" s="37" t="s">
-        <v>115</v>
+        <v>673</v>
       </c>
       <c r="AN31" s="25"/>
       <c r="AO31" s="25"/>
@@ -17836,18 +18062,18 @@
         <v>137</v>
       </c>
       <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="32" t="s">
         <v>148</v>
       </c>
       <c r="I32" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="J32" s="97"/>
+      <c r="J32" s="100"/>
       <c r="K32" s="31"/>
       <c r="L32"/>
       <c r="M32" t="s">
@@ -17880,9 +18106,9 @@
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AL32" s="100"/>
-      <c r="AM32" s="37" t="s">
-        <v>115</v>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="85" t="s">
+        <v>673</v>
       </c>
       <c r="AN32" s="25">
         <v>1.7</v>
@@ -17905,18 +18131,18 @@
         <v>137</v>
       </c>
       <c r="B33" s="98"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="32" t="s">
         <v>68</v>
       </c>
       <c r="I33" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="J33" s="97"/>
+      <c r="J33" s="100"/>
       <c r="K33" s="31"/>
       <c r="L33" t="s">
         <v>60</v>
@@ -17956,9 +18182,9 @@
       <c r="AI33"/>
       <c r="AJ33"/>
       <c r="AK33"/>
-      <c r="AL33" s="100"/>
-      <c r="AM33" s="37" t="s">
-        <v>115</v>
+      <c r="AL33" s="86"/>
+      <c r="AM33" s="85" t="s">
+        <v>673</v>
       </c>
       <c r="AN33" s="25">
         <v>1.8</v>
@@ -17983,19 +18209,19 @@
       <c r="B34" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="99" t="s">
+      <c r="C34" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="100">
         <v>2019</v>
       </c>
-      <c r="E34" s="97">
+      <c r="E34" s="100">
         <v>30</v>
       </c>
-      <c r="F34" s="97" t="s">
+      <c r="F34" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="97" t="s">
+      <c r="G34" s="100" t="s">
         <v>158</v>
       </c>
       <c r="H34" s="32" t="s">
@@ -18004,7 +18230,7 @@
       <c r="I34" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="J34" s="97"/>
+      <c r="J34" s="100"/>
       <c r="K34" s="31"/>
       <c r="L34"/>
       <c r="M34" t="s">
@@ -18042,9 +18268,9 @@
       <c r="AI34"/>
       <c r="AJ34"/>
       <c r="AK34"/>
-      <c r="AL34" s="100"/>
-      <c r="AM34" s="37" t="s">
-        <v>115</v>
+      <c r="AL34" s="86"/>
+      <c r="AM34" s="85" t="s">
+        <v>673</v>
       </c>
       <c r="AN34" s="25">
         <v>1.65</v>
@@ -18067,18 +18293,18 @@
         <v>155</v>
       </c>
       <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
       <c r="H35" s="32" t="s">
         <v>148</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="J35" s="97"/>
+      <c r="J35" s="100"/>
       <c r="K35" s="31"/>
       <c r="L35"/>
       <c r="M35" t="s">
@@ -18118,9 +18344,9 @@
       <c r="AI35"/>
       <c r="AJ35"/>
       <c r="AK35"/>
-      <c r="AL35" s="100"/>
-      <c r="AM35" s="37" t="s">
-        <v>115</v>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="85" t="s">
+        <v>673</v>
       </c>
       <c r="AN35" s="25"/>
       <c r="AO35" s="25"/>
@@ -18139,18 +18365,18 @@
         <v>155</v>
       </c>
       <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
       <c r="H36" s="32" t="s">
         <v>121</v>
       </c>
       <c r="I36" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="J36" s="97"/>
+      <c r="J36" s="100"/>
       <c r="K36" s="31"/>
       <c r="L36"/>
       <c r="M36" t="s">
@@ -18168,9 +18394,9 @@
       <c r="T36">
         <v>1</v>
       </c>
-      <c r="AL36" s="100"/>
-      <c r="AM36" s="37" t="s">
-        <v>115</v>
+      <c r="AL36" s="86"/>
+      <c r="AM36" s="85" t="s">
+        <v>673</v>
       </c>
       <c r="AN36" s="25"/>
       <c r="AO36" s="25"/>
@@ -18191,18 +18417,18 @@
         <v>155</v>
       </c>
       <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
       <c r="H37" s="32" t="s">
         <v>68</v>
       </c>
       <c r="I37" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="J37" s="97"/>
+      <c r="J37" s="100"/>
       <c r="K37" s="31"/>
       <c r="L37"/>
       <c r="M37" t="s">
@@ -18220,9 +18446,9 @@
       <c r="T37">
         <v>1</v>
       </c>
-      <c r="AL37" s="100"/>
-      <c r="AM37" s="37" t="s">
-        <v>115</v>
+      <c r="AL37" s="86"/>
+      <c r="AM37" s="85" t="s">
+        <v>673</v>
       </c>
       <c r="AN37" s="25"/>
       <c r="AO37" s="25"/>
@@ -18243,18 +18469,18 @@
         <v>155</v>
       </c>
       <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
       <c r="H38" s="32" t="s">
         <v>168</v>
       </c>
       <c r="I38" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="J38" s="97"/>
+      <c r="J38" s="100"/>
       <c r="K38" s="31"/>
       <c r="L38"/>
       <c r="M38" t="s">
@@ -18272,9 +18498,9 @@
       <c r="T38">
         <v>1</v>
       </c>
-      <c r="AL38" s="100"/>
-      <c r="AM38" s="37" t="s">
-        <v>115</v>
+      <c r="AL38" s="86"/>
+      <c r="AM38" s="85" t="s">
+        <v>673</v>
       </c>
       <c r="AN38" s="25"/>
       <c r="AO38" s="25">
@@ -18297,18 +18523,18 @@
         <v>155</v>
       </c>
       <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
       <c r="H39" s="32" t="s">
         <v>58</v>
       </c>
       <c r="I39" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="J39" s="97"/>
+      <c r="J39" s="100"/>
       <c r="K39" s="31"/>
       <c r="L39"/>
       <c r="M39" t="s">
@@ -18349,7 +18575,7 @@
         <v>119</v>
       </c>
       <c r="AM39" s="37" t="s">
-        <v>119</v>
+        <v>674</v>
       </c>
       <c r="AN39" s="25">
         <v>0.4</v>
@@ -18374,19 +18600,19 @@
       <c r="B40" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="99" t="s">
+      <c r="C40" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="97">
+      <c r="D40" s="100">
         <v>2019</v>
       </c>
-      <c r="E40" s="97">
+      <c r="E40" s="100">
         <v>3</v>
       </c>
-      <c r="F40" s="97" t="s">
+      <c r="F40" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G40" s="97" t="s">
+      <c r="G40" s="100" t="s">
         <v>177</v>
       </c>
       <c r="H40" s="32" t="s">
@@ -18395,7 +18621,7 @@
       <c r="I40" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J40" s="97"/>
+      <c r="J40" s="100"/>
       <c r="K40" s="31"/>
       <c r="L40"/>
       <c r="M40" t="s">
@@ -18436,8 +18662,8 @@
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
       <c r="AL40" s="39"/>
-      <c r="AM40" s="37" t="s">
-        <v>119</v>
+      <c r="AM40" s="85" t="s">
+        <v>674</v>
       </c>
       <c r="AN40" s="25">
         <v>0.8</v>
@@ -18460,18 +18686,18 @@
         <v>175</v>
       </c>
       <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
       <c r="H41" s="32" t="s">
         <v>119</v>
       </c>
       <c r="I41" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="J41" s="97"/>
+      <c r="J41" s="100"/>
       <c r="K41" s="31"/>
       <c r="L41" t="s">
         <v>61</v>
@@ -18518,8 +18744,8 @@
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
       <c r="AL41" s="39"/>
-      <c r="AM41" s="37" t="s">
-        <v>119</v>
+      <c r="AM41" s="85" t="s">
+        <v>674</v>
       </c>
       <c r="AN41" s="25"/>
       <c r="AO41" s="25"/>
@@ -18538,18 +18764,18 @@
         <v>175</v>
       </c>
       <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
       <c r="H42" s="32" t="s">
         <v>183</v>
       </c>
       <c r="I42" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="J42" s="97"/>
+      <c r="J42" s="100"/>
       <c r="K42" s="31"/>
       <c r="L42"/>
       <c r="M42" t="s">
@@ -18587,8 +18813,8 @@
       </c>
       <c r="AJ42" s="39"/>
       <c r="AL42" s="25"/>
-      <c r="AM42" s="37" t="s">
-        <v>119</v>
+      <c r="AM42" s="85" t="s">
+        <v>674</v>
       </c>
       <c r="AN42" s="25"/>
       <c r="AO42" s="25"/>
@@ -18608,18 +18834,18 @@
         <v>175</v>
       </c>
       <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="32" t="s">
         <v>123</v>
       </c>
       <c r="I43" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="97"/>
+      <c r="J43" s="100"/>
       <c r="K43" s="31"/>
       <c r="L43"/>
       <c r="M43" t="s">
@@ -18668,8 +18894,8 @@
       <c r="AI43"/>
       <c r="AJ43" s="42"/>
       <c r="AL43" s="25"/>
-      <c r="AM43" s="37" t="s">
-        <v>119</v>
+      <c r="AM43" s="85" t="s">
+        <v>674</v>
       </c>
       <c r="AN43" s="25"/>
       <c r="AO43" s="25"/>
@@ -18690,18 +18916,18 @@
         <v>175</v>
       </c>
       <c r="B44" s="98"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
       <c r="H44" s="32" t="s">
         <v>66</v>
       </c>
       <c r="I44" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="J44" s="97"/>
+      <c r="J44" s="100"/>
       <c r="K44" s="31"/>
       <c r="L44"/>
       <c r="M44" t="s">
@@ -18769,19 +18995,19 @@
       <c r="B45" s="98" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="97">
+      <c r="D45" s="100">
         <v>2018</v>
       </c>
-      <c r="E45" s="97">
+      <c r="E45" s="100">
         <v>3</v>
       </c>
-      <c r="F45" s="97" t="s">
+      <c r="F45" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G45" s="97" t="s">
+      <c r="G45" s="100" t="s">
         <v>177</v>
       </c>
       <c r="H45" s="32" t="s">
@@ -18790,7 +19016,7 @@
       <c r="I45" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J45" s="97"/>
+      <c r="J45" s="100"/>
       <c r="K45" s="31"/>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -18856,18 +19082,18 @@
         <v>194</v>
       </c>
       <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
       <c r="H46" s="32" t="s">
         <v>119</v>
       </c>
       <c r="I46" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="J46" s="97"/>
+      <c r="J46" s="100"/>
       <c r="K46" s="31"/>
       <c r="L46" t="s">
         <v>64</v>
@@ -18911,18 +19137,18 @@
         <v>194</v>
       </c>
       <c r="B47" s="98"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
       <c r="H47" s="32" t="s">
         <v>183</v>
       </c>
       <c r="I47" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="J47" s="97"/>
+      <c r="J47" s="100"/>
       <c r="K47" s="31"/>
       <c r="L47"/>
       <c r="M47" t="s">
@@ -18961,18 +19187,18 @@
         <v>194</v>
       </c>
       <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="32" t="s">
         <v>123</v>
       </c>
       <c r="I48" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="J48" s="97"/>
+      <c r="J48" s="100"/>
       <c r="K48" s="31"/>
       <c r="L48"/>
       <c r="M48" t="s">
@@ -19011,18 +19237,18 @@
         <v>194</v>
       </c>
       <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
       <c r="H49" s="32" t="s">
         <v>66</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J49" s="97"/>
+      <c r="J49" s="100"/>
       <c r="K49" s="31"/>
       <c r="L49" t="s">
         <v>62</v>
@@ -19068,19 +19294,19 @@
       <c r="B50" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="99" t="s">
+      <c r="C50" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="97">
+      <c r="D50" s="100">
         <v>2018</v>
       </c>
-      <c r="E50" s="97">
+      <c r="E50" s="100">
         <v>20</v>
       </c>
-      <c r="F50" s="97" t="s">
+      <c r="F50" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="G50" s="97" t="s">
+      <c r="G50" s="100" t="s">
         <v>213</v>
       </c>
       <c r="H50" s="32" t="s">
@@ -19089,7 +19315,7 @@
       <c r="I50" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="J50" s="97"/>
+      <c r="J50" s="100"/>
       <c r="K50" s="31"/>
       <c r="L50"/>
       <c r="M50" t="s">
@@ -19128,18 +19354,18 @@
         <v>210</v>
       </c>
       <c r="B51" s="98"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
       <c r="H51" s="32" t="s">
         <v>123</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="J51" s="97"/>
+      <c r="J51" s="100"/>
       <c r="K51" s="31"/>
       <c r="L51"/>
       <c r="M51" t="s">
@@ -19178,18 +19404,18 @@
         <v>210</v>
       </c>
       <c r="B52" s="98"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
       <c r="H52" s="32" t="s">
         <v>222</v>
       </c>
       <c r="I52" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="J52" s="97"/>
+      <c r="J52" s="100"/>
       <c r="K52" s="31"/>
       <c r="L52" t="s">
         <v>63</v>
@@ -19233,18 +19459,18 @@
         <v>210</v>
       </c>
       <c r="B53" s="98"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
       <c r="H53" s="32" t="s">
         <v>227</v>
       </c>
       <c r="I53" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="J53" s="97"/>
+      <c r="J53" s="100"/>
       <c r="K53" s="31"/>
       <c r="L53"/>
       <c r="M53" t="s">
@@ -19286,18 +19512,18 @@
         <v>210</v>
       </c>
       <c r="B54" s="98"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
       <c r="H54" s="32" t="s">
         <v>233</v>
       </c>
       <c r="I54" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="J54" s="97"/>
+      <c r="J54" s="100"/>
       <c r="K54" s="31"/>
       <c r="L54"/>
       <c r="M54" t="s">
@@ -19339,18 +19565,18 @@
         <v>210</v>
       </c>
       <c r="B55" s="98"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
       <c r="H55" s="32" t="s">
         <v>239</v>
       </c>
       <c r="I55" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="J55" s="97"/>
+      <c r="J55" s="100"/>
       <c r="K55" s="31"/>
       <c r="L55" t="s">
         <v>65</v>
@@ -19391,18 +19617,18 @@
         <v>210</v>
       </c>
       <c r="B56" s="98"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
       <c r="H56" s="32" t="s">
         <v>67</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="J56" s="97"/>
+      <c r="J56" s="100"/>
       <c r="K56" s="31"/>
       <c r="L56"/>
       <c r="M56" t="s">
@@ -19446,19 +19672,19 @@
       <c r="B57" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="C57" s="99" t="s">
+      <c r="C57" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="97">
+      <c r="D57" s="100">
         <v>2017</v>
       </c>
       <c r="E57" s="32">
         <v>3633</v>
       </c>
-      <c r="F57" s="97" t="s">
+      <c r="F57" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G57" s="97" t="s">
+      <c r="G57" s="100" t="s">
         <v>157</v>
       </c>
       <c r="H57" s="32" t="s">
@@ -19467,7 +19693,7 @@
       <c r="I57" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="J57" s="97"/>
+      <c r="J57" s="100"/>
       <c r="K57" s="31"/>
       <c r="L57"/>
       <c r="M57" t="s">
@@ -19491,20 +19717,20 @@
         <v>248</v>
       </c>
       <c r="B58" s="98"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="97"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="32">
         <v>1308</v>
       </c>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
       <c r="H58" s="32" t="s">
         <v>253</v>
       </c>
       <c r="I58" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="J58" s="97"/>
+      <c r="J58" s="100"/>
       <c r="K58" s="31"/>
       <c r="L58" t="s">
         <v>245</v>
@@ -19535,19 +19761,19 @@
       <c r="B59" s="98" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="99" t="s">
+      <c r="C59" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="D59" s="97">
+      <c r="D59" s="100">
         <v>2017</v>
       </c>
       <c r="E59" s="32">
         <v>156</v>
       </c>
-      <c r="F59" s="97" t="s">
+      <c r="F59" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="97" t="s">
+      <c r="G59" s="100" t="s">
         <v>110</v>
       </c>
       <c r="H59" s="32" t="s">
@@ -19582,13 +19808,13 @@
         <v>256</v>
       </c>
       <c r="B60" s="98"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
       <c r="E60" s="32">
         <v>79</v>
       </c>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
       <c r="H60" s="32" t="s">
         <v>115</v>
       </c>
@@ -19628,19 +19854,19 @@
       <c r="B61" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="C61" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="D61" s="97">
+      <c r="D61" s="100">
         <v>2015</v>
       </c>
       <c r="E61" s="32">
         <v>51</v>
       </c>
-      <c r="F61" s="97" t="s">
+      <c r="F61" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="G61" s="97" t="s">
+      <c r="G61" s="100" t="s">
         <v>110</v>
       </c>
       <c r="H61" s="32" t="s">
@@ -19678,13 +19904,13 @@
         <v>262</v>
       </c>
       <c r="B62" s="98"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="32">
         <v>51</v>
       </c>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
       <c r="H62" s="32" t="s">
         <v>115</v>
       </c>
@@ -19722,13 +19948,13 @@
         <v>262</v>
       </c>
       <c r="B63" s="98"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
       <c r="E63" s="32">
         <v>114</v>
       </c>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
       <c r="H63" s="32" t="s">
         <v>115</v>
       </c>
@@ -19766,13 +19992,13 @@
         <v>262</v>
       </c>
       <c r="B64" s="98"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="32">
         <v>250</v>
       </c>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
       <c r="H64" s="32" t="s">
         <v>115</v>
       </c>
@@ -19855,19 +20081,19 @@
       <c r="B65" s="98" t="s">
         <v>276</v>
       </c>
-      <c r="C65" s="99" t="s">
+      <c r="C65" s="103" t="s">
         <v>277</v>
       </c>
-      <c r="D65" s="97">
+      <c r="D65" s="100">
         <v>2019</v>
       </c>
-      <c r="E65" s="97">
+      <c r="E65" s="100">
         <v>150</v>
       </c>
-      <c r="F65" s="97" t="s">
+      <c r="F65" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="G65" s="97" t="s">
+      <c r="G65" s="100" t="s">
         <v>139</v>
       </c>
       <c r="H65" s="32" t="s">
@@ -19876,7 +20102,7 @@
       <c r="I65" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="J65" s="97"/>
+      <c r="J65" s="100"/>
       <c r="K65" s="31"/>
       <c r="L65" t="s">
         <v>255</v>
@@ -19936,18 +20162,18 @@
         <v>276</v>
       </c>
       <c r="B66" s="98"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="100"/>
       <c r="H66" s="32" t="s">
         <v>282</v>
       </c>
       <c r="I66" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="J66" s="97"/>
+      <c r="J66" s="100"/>
       <c r="K66" s="31"/>
       <c r="L66"/>
       <c r="M66" t="s">
@@ -20005,22 +20231,22 @@
       <c r="B67" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="C67" s="99" t="s">
+      <c r="C67" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="D67" s="97">
+      <c r="D67" s="100">
         <v>2017</v>
       </c>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
       <c r="H67" s="32" t="s">
         <v>58</v>
       </c>
       <c r="I67" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="J67" s="97"/>
+      <c r="J67" s="100"/>
       <c r="K67" s="31"/>
       <c r="L67" t="s">
         <v>289</v>
@@ -20082,18 +20308,18 @@
         <v>286</v>
       </c>
       <c r="B68" s="98"/>
-      <c r="C68" s="97"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
       <c r="H68" s="32" t="s">
         <v>148</v>
       </c>
       <c r="I68" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="J68" s="97"/>
+      <c r="J68" s="100"/>
       <c r="K68" s="31"/>
       <c r="L68" t="s">
         <v>293</v>
@@ -20149,13 +20375,13 @@
         <v>286</v>
       </c>
       <c r="B69" s="98"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97" t="s">
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100" t="s">
         <v>297</v>
       </c>
-      <c r="G69" s="97" t="s">
+      <c r="G69" s="100" t="s">
         <v>297</v>
       </c>
       <c r="H69" s="32" t="s">
@@ -20164,7 +20390,7 @@
       <c r="I69" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="J69" s="97"/>
+      <c r="J69" s="100"/>
       <c r="K69" s="31"/>
       <c r="L69" t="s">
         <v>299</v>
@@ -20220,19 +20446,19 @@
       <c r="B70" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="C70" s="99" t="s">
+      <c r="C70" s="103" t="s">
         <v>303</v>
       </c>
-      <c r="D70" s="97">
+      <c r="D70" s="100">
         <v>2020</v>
       </c>
-      <c r="E70" s="97" t="s">
+      <c r="E70" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="F70" s="97" t="s">
+      <c r="F70" s="100" t="s">
         <v>304</v>
       </c>
-      <c r="G70" s="97" t="s">
+      <c r="G70" s="100" t="s">
         <v>139</v>
       </c>
       <c r="H70" s="32" t="s">
@@ -20241,7 +20467,7 @@
       <c r="I70" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="J70" s="97"/>
+      <c r="J70" s="100"/>
       <c r="K70" s="31"/>
       <c r="L70" t="s">
         <v>306</v>
@@ -20297,18 +20523,18 @@
         <v>302</v>
       </c>
       <c r="B71" s="98"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
       <c r="H71" s="32" t="s">
         <v>291</v>
       </c>
       <c r="I71" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="J71" s="97"/>
+      <c r="J71" s="100"/>
       <c r="K71" s="31"/>
       <c r="L71" t="s">
         <v>285</v>
@@ -20368,18 +20594,18 @@
         <v>302</v>
       </c>
       <c r="B72" s="98"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="100"/>
+      <c r="G72" s="100"/>
       <c r="H72" s="32" t="s">
         <v>312</v>
       </c>
       <c r="I72" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="J72" s="97"/>
+      <c r="J72" s="100"/>
       <c r="K72" s="31"/>
       <c r="L72" t="s">
         <v>314</v>
@@ -20437,18 +20663,18 @@
         <v>302</v>
       </c>
       <c r="B73" s="98"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="100"/>
       <c r="H73" s="32" t="s">
         <v>316</v>
       </c>
       <c r="I73" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="J73" s="97"/>
+      <c r="J73" s="100"/>
       <c r="K73" s="31"/>
       <c r="L73" t="s">
         <v>318</v>
@@ -20506,19 +20732,19 @@
       <c r="B74" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="C74" s="99" t="s">
+      <c r="C74" s="103" t="s">
         <v>322</v>
       </c>
-      <c r="D74" s="97">
+      <c r="D74" s="100">
         <v>2018</v>
       </c>
       <c r="E74" s="32">
         <v>107</v>
       </c>
-      <c r="F74" s="97" t="s">
+      <c r="F74" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G74" s="97" t="s">
+      <c r="G74" s="100" t="s">
         <v>157</v>
       </c>
       <c r="H74" s="32" t="s">
@@ -20527,7 +20753,7 @@
       <c r="I74" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="J74" s="97" t="s">
+      <c r="J74" s="100" t="s">
         <v>323</v>
       </c>
       <c r="K74" s="31"/>
@@ -20587,20 +20813,20 @@
         <v>321</v>
       </c>
       <c r="B75" s="98"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="100"/>
       <c r="E75" s="32">
         <v>107</v>
       </c>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100"/>
       <c r="H75" s="32" t="s">
         <v>58</v>
       </c>
       <c r="I75" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="J75" s="97"/>
+      <c r="J75" s="100"/>
       <c r="K75" s="31"/>
       <c r="L75" t="s">
         <v>261</v>
@@ -20623,7 +20849,7 @@
       <c r="T75">
         <v>1</v>
       </c>
-      <c r="AL75" s="100" t="s">
+      <c r="AL75" s="86" t="s">
         <v>123</v>
       </c>
       <c r="AM75" s="81" t="s">
@@ -20660,13 +20886,13 @@
         <v>321</v>
       </c>
       <c r="B76" s="98"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
       <c r="E76" s="32">
         <v>68</v>
       </c>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
       <c r="H76" s="32" t="s">
         <v>58</v>
       </c>
@@ -20698,7 +20924,7 @@
       <c r="T76">
         <v>1</v>
       </c>
-      <c r="AL76" s="100"/>
+      <c r="AL76" s="86"/>
       <c r="AM76" s="81" t="s">
         <v>123</v>
       </c>
@@ -20735,19 +20961,19 @@
       <c r="B77" s="98" t="s">
         <v>332</v>
       </c>
-      <c r="C77" s="99" t="s">
+      <c r="C77" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="D77" s="97">
+      <c r="D77" s="100">
         <v>2020</v>
       </c>
-      <c r="E77" s="97">
+      <c r="E77" s="100">
         <v>184</v>
       </c>
-      <c r="F77" s="97" t="s">
+      <c r="F77" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="G77" s="97" t="s">
+      <c r="G77" s="100" t="s">
         <v>139</v>
       </c>
       <c r="H77" s="32" t="s">
@@ -20781,7 +21007,7 @@
       <c r="T77">
         <v>1</v>
       </c>
-      <c r="AL77" s="100"/>
+      <c r="AL77" s="86"/>
       <c r="AM77" s="81" t="s">
         <v>123</v>
       </c>
@@ -20814,11 +21040,11 @@
         <v>332</v>
       </c>
       <c r="B78" s="98"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="100"/>
+      <c r="G78" s="100"/>
       <c r="H78" s="32" t="s">
         <v>337</v>
       </c>
@@ -20850,7 +21076,7 @@
       <c r="T78">
         <v>1</v>
       </c>
-      <c r="AL78" s="100"/>
+      <c r="AL78" s="86"/>
       <c r="AM78" s="81" t="s">
         <v>123</v>
       </c>
@@ -20881,11 +21107,11 @@
         <v>332</v>
       </c>
       <c r="B79" s="98"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="100"/>
       <c r="H79" s="32" t="s">
         <v>342</v>
       </c>
@@ -20917,7 +21143,7 @@
       <c r="T79">
         <v>1</v>
       </c>
-      <c r="AL79" s="100"/>
+      <c r="AL79" s="86"/>
       <c r="AM79" s="81" t="s">
         <v>123</v>
       </c>
@@ -20950,11 +21176,11 @@
         <v>332</v>
       </c>
       <c r="B80" s="98"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="100"/>
       <c r="H80" s="32" t="s">
         <v>347</v>
       </c>
@@ -20986,7 +21212,7 @@
       <c r="T80">
         <v>1</v>
       </c>
-      <c r="AL80" s="100"/>
+      <c r="AL80" s="86"/>
       <c r="AM80" s="81" t="s">
         <v>123</v>
       </c>
@@ -21019,13 +21245,13 @@
         <v>332</v>
       </c>
       <c r="B81" s="98"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97">
+      <c r="C81" s="100"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100">
         <v>80</v>
       </c>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100"/>
       <c r="H81" s="32" t="s">
         <v>123</v>
       </c>
@@ -21057,7 +21283,7 @@
       <c r="T81">
         <v>1</v>
       </c>
-      <c r="AL81" s="100"/>
+      <c r="AL81" s="86"/>
       <c r="AM81" s="81" t="s">
         <v>123</v>
       </c>
@@ -21090,11 +21316,11 @@
         <v>332</v>
       </c>
       <c r="B82" s="98"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="100"/>
       <c r="H82" s="32" t="s">
         <v>337</v>
       </c>
@@ -21126,7 +21352,7 @@
       <c r="T82">
         <v>1</v>
       </c>
-      <c r="AL82" s="100"/>
+      <c r="AL82" s="86"/>
       <c r="AM82" s="81" t="s">
         <v>123</v>
       </c>
@@ -21163,11 +21389,11 @@
         <v>332</v>
       </c>
       <c r="B83" s="98"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
       <c r="H83" s="32" t="s">
         <v>356</v>
       </c>
@@ -21199,7 +21425,7 @@
       <c r="T83">
         <v>1</v>
       </c>
-      <c r="AL83" s="101" t="s">
+      <c r="AL83" s="87" t="s">
         <v>115</v>
       </c>
       <c r="AM83" s="82" t="s">
@@ -21234,11 +21460,11 @@
         <v>332</v>
       </c>
       <c r="B84" s="98"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
+      <c r="C84" s="100"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="100"/>
+      <c r="G84" s="100"/>
       <c r="H84" s="32" t="s">
         <v>361</v>
       </c>
@@ -21270,7 +21496,7 @@
       <c r="T84">
         <v>1</v>
       </c>
-      <c r="AL84" s="100"/>
+      <c r="AL84" s="86"/>
       <c r="AM84" s="82" t="s">
         <v>115</v>
       </c>
@@ -21304,22 +21530,22 @@
       <c r="A85" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B85" s="85" t="s">
+      <c r="B85" s="106" t="s">
         <v>367</v>
       </c>
-      <c r="C85" s="94" t="s">
+      <c r="C85" s="110" t="s">
         <v>368</v>
       </c>
-      <c r="D85" s="96">
+      <c r="D85" s="109">
         <v>2014</v>
       </c>
-      <c r="E85" s="97">
+      <c r="E85" s="100">
         <v>240</v>
       </c>
-      <c r="F85" s="96" t="s">
+      <c r="F85" s="109" t="s">
         <v>369</v>
       </c>
-      <c r="G85" s="96" t="s">
+      <c r="G85" s="109" t="s">
         <v>110</v>
       </c>
       <c r="H85" s="32" t="s">
@@ -21353,7 +21579,7 @@
       <c r="T85">
         <v>1</v>
       </c>
-      <c r="AL85" s="100"/>
+      <c r="AL85" s="86"/>
       <c r="AM85" s="82" t="s">
         <v>115</v>
       </c>
@@ -21387,12 +21613,12 @@
       <c r="A86" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="100"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
       <c r="H86" s="32" t="s">
         <v>372</v>
       </c>
@@ -21424,7 +21650,7 @@
       <c r="T86">
         <v>1</v>
       </c>
-      <c r="AL86" s="100"/>
+      <c r="AL86" s="86"/>
       <c r="AM86" s="82" t="s">
         <v>115</v>
       </c>
@@ -21458,14 +21684,14 @@
       <c r="A87" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="85">
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="106">
         <v>1200</v>
       </c>
-      <c r="F87" s="92"/>
-      <c r="G87" s="92"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
       <c r="H87" s="32" t="s">
         <v>67</v>
       </c>
@@ -21495,7 +21721,7 @@
       <c r="T87">
         <v>1</v>
       </c>
-      <c r="AL87" s="100"/>
+      <c r="AL87" s="86"/>
       <c r="AM87" s="82" t="s">
         <v>115</v>
       </c>
@@ -21525,12 +21751,12 @@
       <c r="A88" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
-      <c r="G88" s="92"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="107"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="107"/>
       <c r="H88" s="32" t="s">
         <v>375</v>
       </c>
@@ -21560,7 +21786,7 @@
       <c r="T88">
         <v>1</v>
       </c>
-      <c r="AL88" s="100"/>
+      <c r="AL88" s="86"/>
       <c r="AM88" s="82" t="s">
         <v>115</v>
       </c>
@@ -21594,12 +21820,12 @@
       <c r="A89" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="92"/>
-      <c r="G89" s="92"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="107"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="107"/>
       <c r="H89" s="32" t="s">
         <v>377</v>
       </c>
@@ -21629,7 +21855,7 @@
       <c r="T89">
         <v>1</v>
       </c>
-      <c r="AL89" s="100"/>
+      <c r="AL89" s="86"/>
       <c r="AM89" s="82" t="s">
         <v>115</v>
       </c>
@@ -21665,12 +21891,12 @@
       <c r="A90" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="92"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="107"/>
+      <c r="G90" s="107"/>
       <c r="H90" s="32" t="s">
         <v>58</v>
       </c>
@@ -21700,7 +21926,7 @@
       <c r="T90">
         <v>1</v>
       </c>
-      <c r="AL90" s="100"/>
+      <c r="AL90" s="86"/>
       <c r="AM90" s="82" t="s">
         <v>115</v>
       </c>
@@ -21738,12 +21964,12 @@
       <c r="A91" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="92"/>
-      <c r="G91" s="92"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
       <c r="H91" s="32" t="s">
         <v>183</v>
       </c>
@@ -21806,12 +22032,12 @@
       <c r="A92" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="92"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="107"/>
       <c r="H92" s="32" t="s">
         <v>382</v>
       </c>
@@ -21875,12 +22101,12 @@
       <c r="A93" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="92"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="107"/>
+      <c r="D93" s="107"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="107"/>
+      <c r="G93" s="107"/>
       <c r="H93" s="32" t="s">
         <v>385</v>
       </c>
@@ -21931,14 +22157,14 @@
       <c r="A94" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="96">
+      <c r="B94" s="107"/>
+      <c r="C94" s="107"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="109">
         <v>1200</v>
       </c>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
+      <c r="F94" s="107"/>
+      <c r="G94" s="107"/>
       <c r="H94" s="32" t="s">
         <v>386</v>
       </c>
@@ -21991,12 +22217,12 @@
       <c r="A95" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="107"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="107"/>
+      <c r="G95" s="107"/>
       <c r="H95" s="32" t="s">
         <v>389</v>
       </c>
@@ -22049,12 +22275,12 @@
       <c r="A96" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="107"/>
+      <c r="G96" s="107"/>
       <c r="H96" s="32" t="s">
         <v>391</v>
       </c>
@@ -22099,12 +22325,12 @@
       <c r="A97" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B97" s="92"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="107"/>
+      <c r="D97" s="107"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="107"/>
+      <c r="G97" s="107"/>
       <c r="H97" s="32" t="s">
         <v>392</v>
       </c>
@@ -22149,12 +22375,12 @@
       <c r="A98" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B98" s="92"/>
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="107"/>
+      <c r="D98" s="107"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="107"/>
+      <c r="G98" s="107"/>
       <c r="H98" s="32" t="s">
         <v>394</v>
       </c>
@@ -22197,12 +22423,12 @@
       <c r="A99" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="B99" s="93"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="95"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="95"/>
-      <c r="G99" s="95"/>
+      <c r="B99" s="102"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
       <c r="H99" s="32" t="s">
         <v>395</v>
       </c>
@@ -22241,16 +22467,16 @@
     <row r="100" spans="1:113">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
-      <c r="C100" s="85" t="s">
+      <c r="C100" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="106"/>
+      <c r="I100" s="106"/>
+      <c r="J100" s="106"/>
       <c r="U100"/>
       <c r="AK100" s="28"/>
       <c r="AL100" s="83"/>
@@ -22321,11 +22547,11 @@
       <c r="BD102" s="83"/>
     </row>
     <row r="103" spans="1:113">
-      <c r="C103" s="86" t="s">
+      <c r="C103" s="112" t="s">
         <v>397</v>
       </c>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86"/>
+      <c r="D103" s="112"/>
+      <c r="E103" s="112"/>
       <c r="U103"/>
       <c r="V103" s="8"/>
       <c r="AL103" s="83"/>
@@ -24829,39 +25055,39 @@
       <c r="U258"/>
     </row>
     <row r="259" spans="2:24">
-      <c r="B259" s="87" t="s">
+      <c r="B259" s="113" t="s">
         <v>45</v>
       </c>
       <c r="U259"/>
     </row>
     <row r="260" spans="2:24">
-      <c r="B260" s="88"/>
+      <c r="B260" s="114"/>
       <c r="U260"/>
       <c r="X260"/>
     </row>
     <row r="261" spans="2:24">
-      <c r="B261" s="89" t="s">
+      <c r="B261" s="115" t="s">
         <v>84</v>
       </c>
       <c r="U261"/>
       <c r="X261"/>
     </row>
     <row r="262" spans="2:24">
-      <c r="B262" s="90"/>
+      <c r="B262" s="116"/>
       <c r="U262"/>
       <c r="X262"/>
     </row>
     <row r="263" spans="2:24">
-      <c r="B263" s="90"/>
+      <c r="B263" s="116"/>
       <c r="U263"/>
       <c r="X263"/>
     </row>
     <row r="264" spans="2:24">
-      <c r="B264" s="90"/>
+      <c r="B264" s="116"/>
       <c r="U264"/>
     </row>
     <row r="265" spans="2:24">
-      <c r="B265" s="91"/>
+      <c r="B265" s="117"/>
     </row>
     <row r="266" spans="2:24">
       <c r="B266" s="46" t="s">
@@ -24870,28 +25096,28 @@
       <c r="X266"/>
     </row>
     <row r="267" spans="2:24">
-      <c r="B267" s="84" t="s">
+      <c r="B267" s="111" t="s">
         <v>86</v>
       </c>
       <c r="X267"/>
     </row>
     <row r="268" spans="2:24">
-      <c r="B268" s="84"/>
+      <c r="B268" s="111"/>
     </row>
     <row r="269" spans="2:24">
-      <c r="B269" s="84"/>
+      <c r="B269" s="111"/>
       <c r="X269"/>
     </row>
     <row r="270" spans="2:24">
-      <c r="B270" s="84"/>
+      <c r="B270" s="111"/>
       <c r="X270"/>
     </row>
     <row r="271" spans="2:24">
-      <c r="B271" s="84"/>
+      <c r="B271" s="111"/>
       <c r="X271"/>
     </row>
     <row r="272" spans="2:24">
-      <c r="B272" s="84" t="s">
+      <c r="B272" s="111" t="s">
         <v>93</v>
       </c>
       <c r="S272" s="8"/>
@@ -24900,34 +25126,34 @@
       <c r="X272"/>
     </row>
     <row r="273" spans="2:24">
-      <c r="B273" s="84"/>
+      <c r="B273" s="111"/>
       <c r="S273" s="8"/>
       <c r="U273"/>
       <c r="V273" s="8"/>
       <c r="X273"/>
     </row>
     <row r="274" spans="2:24">
-      <c r="B274" s="84"/>
+      <c r="B274" s="111"/>
       <c r="S274" s="8"/>
       <c r="U274"/>
       <c r="V274" s="8"/>
       <c r="X274"/>
     </row>
     <row r="275" spans="2:24">
-      <c r="B275" s="84"/>
+      <c r="B275" s="111"/>
       <c r="S275" s="8"/>
       <c r="U275"/>
       <c r="V275" s="8"/>
       <c r="X275"/>
     </row>
     <row r="276" spans="2:24">
-      <c r="B276" s="84"/>
+      <c r="B276" s="111"/>
     </row>
     <row r="277" spans="2:24">
-      <c r="B277" s="84"/>
+      <c r="B277" s="111"/>
     </row>
     <row r="278" spans="2:24">
-      <c r="B278" s="84" t="s">
+      <c r="B278" s="111" t="s">
         <v>69</v>
       </c>
       <c r="S278" s="8"/>
@@ -24936,31 +25162,31 @@
       <c r="X278"/>
     </row>
     <row r="279" spans="2:24">
-      <c r="B279" s="84"/>
+      <c r="B279" s="111"/>
       <c r="S279" s="8"/>
       <c r="U279"/>
       <c r="V279" s="8"/>
       <c r="X279"/>
     </row>
     <row r="280" spans="2:24">
-      <c r="B280" s="84"/>
+      <c r="B280" s="111"/>
       <c r="X280"/>
     </row>
     <row r="281" spans="2:24">
-      <c r="B281" s="84"/>
+      <c r="B281" s="111"/>
       <c r="S281" s="8"/>
       <c r="U281"/>
       <c r="V281" s="8"/>
       <c r="X281"/>
     </row>
     <row r="282" spans="2:24">
-      <c r="B282" s="84"/>
+      <c r="B282" s="111"/>
       <c r="S282" s="8"/>
       <c r="U282"/>
       <c r="V282" s="8"/>
     </row>
     <row r="283" spans="2:24">
-      <c r="B283" s="84" t="s">
+      <c r="B283" s="111" t="s">
         <v>75</v>
       </c>
       <c r="S283" s="8"/>
@@ -24969,44 +25195,44 @@
       <c r="X283"/>
     </row>
     <row r="284" spans="2:24">
-      <c r="B284" s="84"/>
+      <c r="B284" s="111"/>
       <c r="S284" s="8"/>
       <c r="U284"/>
       <c r="V284" s="8"/>
       <c r="X284"/>
     </row>
     <row r="285" spans="2:24">
-      <c r="B285" s="84"/>
+      <c r="B285" s="111"/>
       <c r="S285" s="8"/>
       <c r="U285"/>
       <c r="V285" s="8"/>
       <c r="X285"/>
     </row>
     <row r="286" spans="2:24">
-      <c r="B286" s="84"/>
+      <c r="B286" s="111"/>
       <c r="S286" s="8"/>
       <c r="U286"/>
       <c r="V286" s="8"/>
       <c r="X286"/>
     </row>
     <row r="287" spans="2:24">
-      <c r="B287" s="84"/>
+      <c r="B287" s="111"/>
       <c r="S287" s="8"/>
       <c r="U287"/>
       <c r="V287" s="8"/>
       <c r="X287"/>
     </row>
     <row r="288" spans="2:24">
-      <c r="B288" s="84" t="s">
+      <c r="B288" s="111" t="s">
         <v>276</v>
       </c>
       <c r="X288"/>
     </row>
     <row r="289" spans="2:24">
-      <c r="B289" s="84"/>
+      <c r="B289" s="111"/>
     </row>
     <row r="290" spans="2:24">
-      <c r="B290" s="84" t="s">
+      <c r="B290" s="111" t="s">
         <v>286</v>
       </c>
       <c r="S290" s="8"/>
@@ -25015,21 +25241,21 @@
       <c r="X290"/>
     </row>
     <row r="291" spans="2:24">
-      <c r="B291" s="84"/>
+      <c r="B291" s="111"/>
       <c r="S291" s="8"/>
       <c r="U291"/>
       <c r="V291" s="8"/>
       <c r="X291"/>
     </row>
     <row r="292" spans="2:24">
-      <c r="B292" s="84"/>
+      <c r="B292" s="111"/>
       <c r="S292" s="8"/>
       <c r="U292"/>
       <c r="V292" s="8"/>
       <c r="X292"/>
     </row>
     <row r="293" spans="2:24">
-      <c r="B293" s="84" t="s">
+      <c r="B293" s="111" t="s">
         <v>91</v>
       </c>
       <c r="S293" s="8"/>
@@ -25037,10 +25263,10 @@
       <c r="V293" s="8"/>
     </row>
     <row r="294" spans="2:24">
-      <c r="B294" s="84"/>
+      <c r="B294" s="111"/>
     </row>
     <row r="295" spans="2:24">
-      <c r="B295" s="84"/>
+      <c r="B295" s="111"/>
       <c r="S295" s="8"/>
       <c r="U295"/>
       <c r="V295" s="8"/>
@@ -25165,6 +25391,115 @@
     </row>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="B278:B282"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="B293:B295"/>
+    <mergeCell ref="C100:J100"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="B261:B265"/>
+    <mergeCell ref="B267:B271"/>
+    <mergeCell ref="B272:B277"/>
+    <mergeCell ref="B85:B99"/>
+    <mergeCell ref="C85:C99"/>
+    <mergeCell ref="D85:D99"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F99"/>
+    <mergeCell ref="G85:G99"/>
+    <mergeCell ref="E87:E93"/>
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="C77:C84"/>
+    <mergeCell ref="D77:D84"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="F77:F84"/>
+    <mergeCell ref="G77:G84"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="AL23:AL30"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="AL31:AL38"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="J20:J28"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="J34:J39"/>
     <mergeCell ref="AL75:AL82"/>
     <mergeCell ref="AL83:AL90"/>
     <mergeCell ref="A1:A5"/>
@@ -25189,115 +25524,6 @@
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="W15:W23"/>
-    <mergeCell ref="AL23:AL30"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="AL31:AL38"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="J20:J28"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="G34:G39"/>
-    <mergeCell ref="J34:J39"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="J50:J56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="E50:E56"/>
-    <mergeCell ref="F50:F56"/>
-    <mergeCell ref="G50:G56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="B85:B99"/>
-    <mergeCell ref="C85:C99"/>
-    <mergeCell ref="D85:D99"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F99"/>
-    <mergeCell ref="G85:G99"/>
-    <mergeCell ref="E87:E93"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="C77:C84"/>
-    <mergeCell ref="D77:D84"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="F77:F84"/>
-    <mergeCell ref="G77:G84"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="B278:B282"/>
-    <mergeCell ref="B283:B287"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="B293:B295"/>
-    <mergeCell ref="C100:J100"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="B261:B265"/>
-    <mergeCell ref="B267:B271"/>
-    <mergeCell ref="B272:B277"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25327,160 +25553,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1">
-      <c r="H1" s="121" t="s">
+      <c r="H1" s="118" t="s">
         <v>401</v>
       </c>
-      <c r="I1" s="121"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="2:16" ht="17" thickBot="1">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="119" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="119" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="119" t="s">
         <v>405</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="119" t="s">
         <v>406</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="119" t="s">
         <v>407</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="119" t="s">
         <v>408</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="119" t="s">
         <v>409</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="119" t="s">
         <v>410</v>
       </c>
-      <c r="K2" s="120" t="s">
+      <c r="K2" s="119" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="17" thickBot="1">
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="2:16" ht="18" thickBot="1">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="120" t="s">
         <v>412</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="120" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="116">
+      <c r="D4" s="121">
         <v>2021</v>
       </c>
-      <c r="E4" s="116">
+      <c r="E4" s="121">
         <v>547</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="120" t="s">
         <v>414</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="120" t="s">
         <v>415</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="120" t="s">
         <v>157</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="K4" s="116">
+      <c r="K4" s="121">
         <v>0.97</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="18" thickBot="1">
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="K5" s="116"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="2:16" ht="18" thickBot="1">
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
       <c r="J6" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="K6" s="116"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="2:16" ht="77" customHeight="1" thickBot="1">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="120" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="120" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="116">
+      <c r="D7" s="121">
         <v>2020</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="121">
         <v>234</v>
       </c>
-      <c r="F7" s="116">
+      <c r="F7" s="121">
         <v>24</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="120" t="s">
         <v>421</v>
       </c>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="120" t="s">
         <v>422</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="120" t="s">
         <v>157</v>
       </c>
       <c r="J7" s="47" t="s">
         <v>423</v>
       </c>
-      <c r="K7" s="116" t="s">
+      <c r="K7" s="121" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18" thickBot="1">
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
       <c r="J8" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="K8" s="116"/>
+      <c r="K8" s="121"/>
       <c r="O8" t="s">
         <v>426</v>
       </c>
@@ -25489,20 +25715,20 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="18" thickBot="1">
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="K9" s="116" t="s">
+      <c r="K9" s="121" t="s">
         <v>430</v>
       </c>
       <c r="O9" s="48" t="s">
@@ -25513,18 +25739,18 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="18" thickBot="1">
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
       <c r="J10" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="K10" s="116"/>
+      <c r="K10" s="121"/>
       <c r="O10" s="48" t="s">
         <v>428</v>
       </c>
@@ -25533,20 +25759,20 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="18" thickBot="1">
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="K11" s="116" t="s">
+      <c r="K11" s="121" t="s">
         <v>435</v>
       </c>
       <c r="O11" s="48" t="s">
@@ -25557,18 +25783,18 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="18" thickBot="1">
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
       <c r="J12" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="K12" s="116"/>
+      <c r="K12" s="121"/>
       <c r="O12" s="48" t="s">
         <v>421</v>
       </c>
@@ -25577,28 +25803,28 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="22" customHeight="1" thickBot="1">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="122" t="s">
         <v>437</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="122" t="s">
         <v>438</v>
       </c>
-      <c r="D13" s="116">
+      <c r="D13" s="121">
         <v>2020</v>
       </c>
-      <c r="E13" s="116">
+      <c r="E13" s="121">
         <v>5500</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="121">
         <v>225</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="H13" s="118" t="s">
+      <c r="H13" s="123" t="s">
         <v>439</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="120" t="s">
         <v>157</v>
       </c>
       <c r="J13" s="47" t="s">
@@ -25615,14 +25841,14 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="18" thickBot="1">
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="117"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="120"/>
       <c r="J14" s="47" t="s">
         <v>442</v>
       </c>
@@ -25637,20 +25863,20 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="48" customHeight="1" thickBot="1">
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116">
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121">
         <v>225</v>
       </c>
-      <c r="G15" s="117" t="s">
+      <c r="G15" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="H15" s="118" t="s">
+      <c r="H15" s="123" t="s">
         <v>444</v>
       </c>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="120" t="s">
         <v>157</v>
       </c>
       <c r="J15" s="47" t="s">
@@ -25667,14 +25893,14 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="18" thickBot="1">
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="117"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="120"/>
       <c r="J16" s="47" t="s">
         <v>446</v>
       </c>
@@ -25715,71 +25941,71 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="49" customHeight="1" thickBot="1">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="120" t="s">
         <v>451</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="120" t="s">
         <v>452</v>
       </c>
-      <c r="D18" s="116">
+      <c r="D18" s="121">
         <v>2019</v>
       </c>
-      <c r="E18" s="116">
+      <c r="E18" s="121">
         <v>177</v>
       </c>
-      <c r="F18" s="116">
+      <c r="F18" s="121">
         <v>177</v>
       </c>
-      <c r="G18" s="117" t="s">
+      <c r="G18" s="120" t="s">
         <v>421</v>
       </c>
-      <c r="H18" s="117" t="s">
+      <c r="H18" s="120" t="s">
         <v>453</v>
       </c>
-      <c r="I18" s="117" t="s">
+      <c r="I18" s="120" t="s">
         <v>157</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>454</v>
       </c>
-      <c r="K18" s="116">
+      <c r="K18" s="121">
         <v>0.93</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18" thickBot="1">
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
       <c r="J19" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="K19" s="116"/>
+      <c r="K19" s="121"/>
     </row>
     <row r="20" spans="2:13" ht="22" customHeight="1" thickBot="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="120" t="s">
         <v>456</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="120" t="s">
         <v>457</v>
       </c>
-      <c r="D20" s="116">
+      <c r="D20" s="121">
         <v>2018</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="116">
+      <c r="F20" s="121">
         <v>30</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="120" t="s">
         <v>421</v>
       </c>
-      <c r="H20" s="117" t="s">
+      <c r="H20" s="120" t="s">
         <v>148</v>
       </c>
       <c r="I20" s="47" t="s">
@@ -25788,85 +26014,85 @@
       <c r="J20" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="K20" s="116" t="s">
+      <c r="K20" s="121" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="18" thickBot="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
       <c r="I21" s="47" t="s">
         <v>460</v>
       </c>
       <c r="J21" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="K21" s="116"/>
+      <c r="K21" s="121"/>
     </row>
     <row r="22" spans="2:13" ht="18" thickBot="1">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="120" t="s">
         <v>462</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="120" t="s">
         <v>463</v>
       </c>
-      <c r="D22" s="116">
+      <c r="D22" s="121">
         <v>2018</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="117" t="s">
+      <c r="G22" s="120" t="s">
         <v>421</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="H22" s="120" t="s">
         <v>464</v>
       </c>
-      <c r="I22" s="117" t="s">
+      <c r="I22" s="120" t="s">
         <v>465</v>
       </c>
       <c r="J22" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="K22" s="116">
+      <c r="K22" s="121">
         <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="18" thickBot="1">
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
       <c r="J23" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="K23" s="116"/>
+      <c r="K23" s="121"/>
     </row>
     <row r="24" spans="2:13" ht="18" thickBot="1">
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
       <c r="J24" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="K24" s="116"/>
+      <c r="K24" s="121"/>
     </row>
     <row r="25" spans="2:13" ht="35" thickBot="1">
       <c r="B25" s="47" t="s">
@@ -26176,51 +26402,16 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="K22:K24"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="K18:K19"/>
@@ -26237,16 +26428,51 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26258,7 +26484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B025571-6B4B-594A-97AB-303663B49D96}">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="S17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
@@ -26277,39 +26503,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="127" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="127" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="124" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="134" t="s">
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="124" t="s">
         <v>489</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
       <c r="N1" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="135"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="52" t="s">
         <v>491</v>
       </c>
@@ -26319,7 +26545,7 @@
       <c r="F2" s="52" t="s">
         <v>493</v>
       </c>
-      <c r="G2" s="135"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="52" t="s">
         <v>494</v>
       </c>
@@ -26381,25 +26607,25 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="52" customHeight="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="130" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="125">
+      <c r="B4" s="132">
         <v>2020</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="133" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="125">
+      <c r="D4" s="132">
         <v>2</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="132" t="s">
         <v>505</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="126">
         <v>52</v>
       </c>
       <c r="H4" s="46" t="s">
@@ -26419,19 +26645,19 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="28">
-      <c r="A5" s="123"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="128" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="126" t="s">
         <v>510</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="132" t="s">
         <v>510</v>
       </c>
-      <c r="E5" s="126"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="126" t="s">
         <v>510</v>
       </c>
       <c r="H5" s="46" t="s">
@@ -26451,25 +26677,25 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="30">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="130" t="s">
         <v>515</v>
       </c>
-      <c r="B6" s="125">
+      <c r="B6" s="132">
         <v>2020</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="126">
         <v>5500</v>
       </c>
-      <c r="D6" s="125">
+      <c r="D6" s="132">
         <v>3</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="132" t="s">
         <v>516</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="126">
         <v>225</v>
       </c>
       <c r="H6" s="46" t="s">
@@ -26489,13 +26715,13 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1">
-      <c r="A7" s="123"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="129"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="136"/>
       <c r="H7" s="46" t="s">
         <v>517</v>
       </c>
@@ -26665,16 +26891,16 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="130" t="s">
         <v>552</v>
       </c>
-      <c r="B12" s="125">
+      <c r="B12" s="132">
         <v>2015</v>
       </c>
       <c r="C12" s="61">
         <v>57</v>
       </c>
-      <c r="D12" s="125">
+      <c r="D12" s="132">
         <v>3</v>
       </c>
       <c r="E12" s="60" t="s">
@@ -26686,10 +26912,10 @@
       <c r="G12" s="61">
         <v>57</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="111" t="s">
         <v>506</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="111" t="s">
         <v>661</v>
       </c>
       <c r="J12" s="46" t="s">
@@ -26703,12 +26929,12 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="123"/>
-      <c r="B13" s="126"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="61">
         <v>25</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="132"/>
       <c r="E13" s="57" t="s">
         <v>557</v>
       </c>
@@ -26718,8 +26944,8 @@
       <c r="G13" s="61">
         <v>25</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
       <c r="J13" s="58" t="s">
         <v>558</v>
       </c>
@@ -26731,12 +26957,12 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="124"/>
-      <c r="B14" s="130"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="63">
         <v>25</v>
       </c>
-      <c r="D14" s="131"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="64" t="s">
         <v>561</v>
       </c>
@@ -26746,8 +26972,8 @@
       <c r="G14" s="63">
         <v>25</v>
       </c>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
       <c r="J14" s="65" t="s">
         <v>562</v>
       </c>
@@ -26793,40 +27019,40 @@
       </c>
     </row>
     <row r="22" spans="14:17">
-      <c r="N22" s="122" t="s">
+      <c r="N22" s="130" t="s">
         <v>503</v>
       </c>
-      <c r="O22" s="125">
+      <c r="O22" s="132">
         <v>2.5</v>
       </c>
-      <c r="P22" s="125">
+      <c r="P22" s="132">
         <v>4</v>
       </c>
-      <c r="Q22" s="125">
+      <c r="Q22" s="132">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="14:17">
-      <c r="N23" s="123"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134"/>
     </row>
     <row r="24" spans="14:17">
-      <c r="N24" s="122" t="s">
+      <c r="N24" s="130" t="s">
         <v>515</v>
       </c>
-      <c r="O24" s="125" t="s">
+      <c r="O24" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
     </row>
     <row r="25" spans="14:17">
-      <c r="N25" s="123"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
     </row>
     <row r="26" spans="14:17">
       <c r="N26" s="58" t="s">
@@ -26882,7 +27108,7 @@
       </c>
     </row>
     <row r="30" spans="14:17">
-      <c r="N30" s="122" t="s">
+      <c r="N30" s="130" t="s">
         <v>552</v>
       </c>
       <c r="O30" s="60">
@@ -26896,7 +27122,7 @@
       </c>
     </row>
     <row r="31" spans="14:17">
-      <c r="N31" s="123"/>
+      <c r="N31" s="131"/>
       <c r="O31" s="57">
         <v>0.8</v>
       </c>
@@ -26908,7 +27134,7 @@
       </c>
     </row>
     <row r="32" spans="14:17">
-      <c r="N32" s="124"/>
+      <c r="N32" s="137"/>
       <c r="O32" s="64">
         <v>0.8</v>
       </c>
@@ -27054,6 +27280,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="H12:H14"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="A1:A2"/>
@@ -27066,27 +27313,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27168,34 +27394,34 @@
       <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="142" t="s">
         <v>594</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="142" t="s">
         <v>486</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="144" t="s">
         <v>488</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="75"/>
-      <c r="H4" s="147" t="s">
+      <c r="H4" s="144" t="s">
         <v>595</v>
       </c>
-      <c r="I4" s="143" t="s">
+      <c r="I4" s="140" t="s">
         <v>596</v>
       </c>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
     </row>
     <row r="5" spans="2:12" ht="34">
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146" t="s">
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="76" t="s">
@@ -27207,7 +27433,7 @@
       <c r="G5" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="H5" s="149"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="76" t="s">
         <v>494</v>
       </c>
@@ -27222,7 +27448,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="34">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="148" t="s">
         <v>602</v>
       </c>
       <c r="C6" s="98" t="s">
@@ -27240,7 +27466,7 @@
       <c r="G6" s="98" t="s">
         <v>604</v>
       </c>
-      <c r="H6" s="140">
+      <c r="H6" s="147">
         <v>69689</v>
       </c>
       <c r="I6" s="77" t="s">
@@ -27257,13 +27483,13 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="16" customHeight="1">
-      <c r="B7" s="142"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
       <c r="F7" s="98"/>
       <c r="G7" s="98"/>
-      <c r="H7" s="140"/>
+      <c r="H7" s="147"/>
       <c r="I7" s="77" t="s">
         <v>139</v>
       </c>
@@ -27278,7 +27504,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="68">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="148" t="s">
         <v>609</v>
       </c>
       <c r="C8" s="98" t="s">
@@ -27313,7 +27539,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="85">
-      <c r="B9" s="142"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="98"/>
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
@@ -27336,7 +27562,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="51">
-      <c r="B10" s="142"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
@@ -27482,7 +27708,7 @@
       <c r="G14" s="98" t="s">
         <v>612</v>
       </c>
-      <c r="H14" s="140">
+      <c r="H14" s="147">
         <v>273</v>
       </c>
       <c r="I14" s="77" t="s">
@@ -27505,7 +27731,7 @@
       <c r="E15" s="98"/>
       <c r="F15" s="98"/>
       <c r="G15" s="98"/>
-      <c r="H15" s="140"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="77" t="s">
         <v>643</v>
       </c>
@@ -27538,7 +27764,7 @@
       <c r="G16" s="98" t="s">
         <v>604</v>
       </c>
-      <c r="H16" s="140">
+      <c r="H16" s="147">
         <v>744</v>
       </c>
       <c r="I16" s="77" t="s">
@@ -27555,17 +27781,17 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="68">
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="141"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="151"/>
       <c r="I17" s="77" t="s">
         <v>653</v>
       </c>
-      <c r="J17" s="138"/>
+      <c r="J17" s="149"/>
       <c r="K17" s="77" t="s">
         <v>654</v>
       </c>
@@ -27574,17 +27800,17 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="68">
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="141"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="151"/>
       <c r="I18" s="77" t="s">
         <v>656</v>
       </c>
-      <c r="J18" s="138"/>
+      <c r="J18" s="149"/>
       <c r="K18" s="77" t="s">
         <v>657</v>
       </c>
@@ -27593,18 +27819,18 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="106" t="s">
         <v>659</v>
       </c>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
     </row>
     <row r="20" spans="2:12" ht="17" customHeight="1">
       <c r="K20" s="7"/>
@@ -27617,25 +27843,6 @@
     <row r="62" ht="41" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="H14:H15"/>
@@ -27652,6 +27859,25 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/supplementary 4.xlsx
+++ b/supplementary 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Downloads/wageningen/research records/record/supplementary github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051F84A-C4DB-A34C-ACD1-1C189A62BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCDC5AA-1B78-EA44-BD67-186B8E6B5AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13760" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{E8E2C425-F74D-884D-BED2-21E46125997D}"/>
   </bookViews>
@@ -46,20 +46,64 @@
     <definedName name="_xlchart.v1.30" hidden="1">measurement!$AQ$13:$AQ$43</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">measurement!$AR$12</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">measurement!$AR$13:$AR$43</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">measurement!$AM$13:$AM$43</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">measurement!$AN$12</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">measurement!$AN$13:$AN$43</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">measurement!$AO$12</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">measurement!$AO$13:$AO$43</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">measurement!$AP$12</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">measurement!$AP$13:$AP$43</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">measurement!$AO$13:$AO$43</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">measurement!$AQ$12</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">measurement!$AQ$13:$AQ$43</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">measurement!$AR$12</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">measurement!$AR$13:$AR$43</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">measurement!$AM$13:$AM$43</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">measurement!$AN$12</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">measurement!$AN$13:$AN$43</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">measurement!$AO$12</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">measurement!$AO$13:$AO$43</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">measurement!$AP$12</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">measurement!$AP$12</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">measurement!$AP$13:$AP$43</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">measurement!$AQ$12</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">measurement!$AQ$13:$AQ$43</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">measurement!$AR$12</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">measurement!$AR$13:$AR$43</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">measurement!$AM$13:$AM$43</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">measurement!$AN$12</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">measurement!$AN$13:$AN$43</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">measurement!$AO$12</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">measurement!$AO$13:$AO$43</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">measurement!$AP$13:$AP$43</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">measurement!$AP$12</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">measurement!$AP$13:$AP$43</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">measurement!$AQ$12</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">measurement!$AQ$13:$AQ$43</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">measurement!$AR$12</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">measurement!$AR$13:$AR$43</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">measurement!$AM$13:$AM$43</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">measurement!$AN$12</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">measurement!$AN$13:$AN$43</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">measurement!$AO$12</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">measurement!$AQ$12</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">measurement!$AO$13:$AO$43</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">measurement!$AP$12</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">measurement!$AP$13:$AP$43</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">measurement!$AQ$12</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">measurement!$AQ$13:$AQ$43</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">measurement!$AR$12</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">measurement!$AR$13:$AR$43</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">measurement!$AQ$13:$AQ$43</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">measurement!$AR$12</definedName>
-    <definedName name="_xlchart.v2.33" hidden="1">BCS!$N$21:$N$32</definedName>
-    <definedName name="_xlchart.v2.34" hidden="1">BCS!$Q$20</definedName>
-    <definedName name="_xlchart.v2.35" hidden="1">BCS!$Q$21:$Q$32</definedName>
+    <definedName name="_xlchart.v2.77" hidden="1">BCS!$N$21:$N$32</definedName>
+    <definedName name="_xlchart.v2.78" hidden="1">BCS!$Q$20</definedName>
+    <definedName name="_xlchart.v2.79" hidden="1">BCS!$Q$21:$Q$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -80,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="684">
   <si>
     <t>types of measurements</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2862,6 +2906,14 @@
   </si>
   <si>
     <t>Head length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R²</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R²(x10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4857,158 +4909,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>measurement!$AB$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>R2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>measurement!$Z$42:$Z$56</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>HL</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FW</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HW</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HWi</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HB</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HL</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>HR</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>HT</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HS</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>HH</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SH</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TL</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>LB</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>LR</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>BL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>measurement!$AB$42:$AB$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.70899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.73599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.83099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.76400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.51800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.90200000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9011-CB42-B62B-5BE04CB11CF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -5172,6 +5072,174 @@
         <c:smooth val="0"/>
         <c:axId val="519306864"/>
         <c:axId val="580999248"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>measurement!$AB$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R²</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>measurement!$Z$42:$Z$56</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>HL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HWi</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HH</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SH</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>TL</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>BL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>measurement!$AB$42:$AB$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9011-CB42-B62B-5BE04CB11CF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1588433823"/>
+        <c:axId val="1511120303"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="519306864"/>
@@ -5447,6 +5515,158 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1511120303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Values:</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>𝑅</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1588433823"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1588433823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1511120303"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5456,7 +5676,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6362,6 +6582,925 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>b:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>variations</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>most</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>used</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>evaluation criteria</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>top</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>body</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>measurements</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>under</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>different acquisition procedures</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{C1BA2EF2-FF8C-314A-9204-C3E9F3C4DA42}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>MAE(cm)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E9AA565B-A806-704C-8F99-9893FEDC5490}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>RMSE(cm)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9BB4BCD2-F542-EF49-B994-13EE9D9F5B32}" formatIdx="5">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>R²(x10)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DAD98525-B781-C04A-9427-1B508D568FCB}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>r(x10)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BCA6C83A-1951-894E-95C8-B9512E31AD1D}" formatIdx="9">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>SD(cm)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Top</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>4</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>body</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>measurements</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Values</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>top</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>5</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>used</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>evaluation criteria  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
         <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
@@ -6409,7 +7548,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1400">
+              <a:defRPr sz="1200">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -6903,7 +8042,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>R2(x10)</cx:v>
+              <cx:v>R²(x10)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="2"/>
@@ -6929,925 +8068,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.20</cx:f>
-              <cx:v>SD(cm)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:title>
-          <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Top</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>4</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>body</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>measurements</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:rich>
-          </cx:tx>
-        </cx:title>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>Values</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>top</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>5</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>used</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>evaluation criteria  </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-              </a:p>
-            </cx:rich>
-          </cx:tx>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="r" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>b:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>the</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>variations</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>5</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>most</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>used</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>evaluation criteria</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>top</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>body</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>measurements</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>under</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>different acquisition procedures</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{C1BA2EF2-FF8C-314A-9204-C3E9F3C4DA42}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>MAE(cm)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E9AA565B-A806-704C-8F99-9893FEDC5490}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>RMSE(cm)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{9BB4BCD2-F542-EF49-B994-13EE9D9F5B32}" formatIdx="5">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
-              <cx:v>R2(x10)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{DAD98525-B781-C04A-9427-1B508D568FCB}" formatIdx="6">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
-              <cx:v>r(x10)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{BCA6C83A-1951-894E-95C8-B9512E31AD1D}" formatIdx="9">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>SD(cm)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8368,10 +8588,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.33</cx:f>
+        <cx:f>_xlchart.v2.77</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.35</cx:f>
+        <cx:f>_xlchart.v2.79</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8469,7 +8689,7 @@
         <cx:series layoutId="funnel" uniqueId="{65BAE8D7-C711-9248-B82F-65421DFE8023}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.34</cx:f>
+              <cx:f>_xlchart.v2.78</cx:f>
               <cx:v>width of range</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12891,7 +13111,7 @@
     </cdr:from>
     <cdr:to>
       <cdr:x>0.93637</cdr:x>
-      <cdr:y>0.96018</cdr:y>
+      <cdr:y>0.98796</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -12906,8 +13126,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="310985" y="3823252"/>
-          <a:ext cx="9972260" cy="618435"/>
+          <a:off x="312524" y="3083428"/>
+          <a:ext cx="10020743" cy="602393"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -15033,7 +15253,412 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31F04AC5-32DF-2E49-BEB2-4C711E7CC39C}" name="数据透视表2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D78BFBA5-BF9F-C642-921E-5312B13F76F9}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="R13:T92" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="17">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="53">
+        <item x="19"/>
+        <item x="16"/>
+        <item x="44"/>
+        <item x="14"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item m="1" x="50"/>
+        <item x="33"/>
+        <item m="1" x="46"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="8"/>
+        <item m="1" x="47"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item m="1" x="51"/>
+        <item x="13"/>
+        <item x="41"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item m="1" x="48"/>
+        <item x="37"/>
+        <item m="1" x="49"/>
+        <item x="31"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="32"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="20"/>
+        <item x="42"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="30"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item m="1" x="52"/>
+        <item x="26"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="34"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="7"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="79">
+    <i>
+      <x v="45"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="50"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="34"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="39"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="49"/>
+      <x/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="51"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="52"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="32"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="33"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="31"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:article" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31F04AC5-32DF-2E49-BEB2-4C711E7CC39C}" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="L13:O99" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -15639,413 +16264,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D78BFBA5-BF9F-C642-921E-5312B13F76F9}" name="数据透视表3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="R13:T92" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="17">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="53">
-        <item x="19"/>
-        <item x="16"/>
-        <item x="44"/>
-        <item x="14"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item m="1" x="50"/>
-        <item x="33"/>
-        <item m="1" x="46"/>
-        <item x="21"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="35"/>
-        <item x="23"/>
-        <item x="36"/>
-        <item x="8"/>
-        <item m="1" x="47"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item m="1" x="51"/>
-        <item x="13"/>
-        <item x="41"/>
-        <item x="9"/>
-        <item m="1" x="45"/>
-        <item m="1" x="48"/>
-        <item x="37"/>
-        <item m="1" x="49"/>
-        <item x="31"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="32"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="20"/>
-        <item x="42"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="30"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item m="1" x="52"/>
-        <item x="26"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="15"/>
-        <item x="34"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="7"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="79">
-    <i>
-      <x v="45"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="50"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="51"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="52"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:article" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4212AC-D170-D04B-A2F6-DDFC52814A04}" name="数据透视表1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="model types">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E4212AC-D170-D04B-A2F6-DDFC52814A04}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="model types">
   <location ref="O8:P15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -16424,8 +16644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925F1468-077D-0F4A-9773-C3A148E71923}">
   <dimension ref="A1:DI318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R37" zoomScale="90" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AK50" sqref="AK50"/>
+    <sheetView tabSelected="1" topLeftCell="J36" zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16728,7 +16948,7 @@
         <v>664</v>
       </c>
       <c r="AP12" s="25" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="AQ12" s="25" t="s">
         <v>670</v>
@@ -18681,7 +18901,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="17">
+    <row r="41" spans="1:50" ht="18">
       <c r="A41" s="32" t="s">
         <v>175</v>
       </c>
@@ -18733,7 +18953,7 @@
         <v>32</v>
       </c>
       <c r="AB41" s="40" t="s">
-        <v>41</v>
+        <v>682</v>
       </c>
       <c r="AC41" s="40" t="s">
         <v>15</v>
@@ -27324,7 +27544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F2048E-D21E-B34A-81C4-563944EA7883}">
   <dimension ref="B1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="109" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J13" activeCellId="1" sqref="J12 J13"/>
     </sheetView>
   </sheetViews>
